--- a/工作文档/05 测试/测试问题跟踪表.xlsx
+++ b/工作文档/05 测试/测试问题跟踪表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_大学\2021.9\软件开发基础能力训练\大作业\LuckyHost\工作文档\05 测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{814461D6-A0B5-450E-820A-4059C6B3896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B30041-7184-44E8-84A2-A0DE094A94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="17" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="问题跟踪表" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>项目管理体系文件</t>
   </si>
@@ -67,6 +58,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -321,11 +313,23 @@
     <t>修改了rotate函数中不合逻辑的部分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>主界面加载过程中出现卡顿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主类对同文件中外部类的调用导致加载效率低下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将外部类改为lambda表达式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -416,47 +420,56 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -464,6 +477,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -477,6 +491,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -484,6 +499,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,6 +507,7 @@
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -499,6 +516,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -738,7 +756,7 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,34 +940,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Comma0" xfId="1"/>
-    <cellStyle name="Currency [0]_laroux" xfId="2"/>
-    <cellStyle name="Currency_laroux" xfId="3"/>
-    <cellStyle name="Currency0" xfId="4"/>
-    <cellStyle name="Date" xfId="5"/>
-    <cellStyle name="Fixed" xfId="6"/>
-    <cellStyle name="Header 1" xfId="7"/>
-    <cellStyle name="Header 2" xfId="8"/>
-    <cellStyle name="Heading 1" xfId="9"/>
-    <cellStyle name="Heading 2" xfId="10"/>
-    <cellStyle name="HP Logo" xfId="11"/>
-    <cellStyle name="Normal_2230ij &amp; Consumable" xfId="12"/>
-    <cellStyle name="Total" xfId="13"/>
+    <cellStyle name="Comma0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency [0]_laroux" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency_laroux" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency0" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Fixed" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="HP Logo" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal_2230ij &amp; Consumable" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Total" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="常规 2 2" xfId="15"/>
-    <cellStyle name="常规 2 2 2" xfId="16"/>
-    <cellStyle name="常规 2 3" xfId="17"/>
-    <cellStyle name="常规 3" xfId="18"/>
-    <cellStyle name="常规 4" xfId="19"/>
-    <cellStyle name="常规 5" xfId="20"/>
-    <cellStyle name="普通_ATMCONF" xfId="21"/>
-    <cellStyle name="千分位[0]_ATMCONF" xfId="22"/>
-    <cellStyle name="千分位_ATMCONF" xfId="23"/>
-    <cellStyle name="千位[0]_ATMserver" xfId="24"/>
-    <cellStyle name="千位_ATMserver" xfId="25"/>
+    <cellStyle name="常规 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="普通_ATMCONF" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="千分位[0]_ATMCONF" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="千分位_ATMCONF" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="千位[0]_ATMserver" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="千位_ATMserver" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -989,7 +1010,7 @@
                   <a14:compatExt spid="_x0000_s19457"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2804C626-06E5-4F64-A1B6-3EBC62AD99CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000014C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1004,9 +1025,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -1014,16 +1032,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -1475,7 +1483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1956,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2158,11 +2166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2690,23 +2698,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" ht="32.4">
       <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="9">
@@ -2813,10 +2847,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Urgent(Blocker),Very Hight (Critical),Hight (Major),Medium (Minor),Low (Trivial)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G19" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Open,Working,Return,Cancel,Fixed,Reopen,Closed,挂起"</formula1>
     </dataValidation>
   </dataValidations>

--- a/工作文档/05 测试/测试问题跟踪表.xlsx
+++ b/工作文档/05 测试/测试问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_大学\2021.9\软件开发基础能力训练\大作业\LuckyHost\工作文档\05 测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B30041-7184-44E8-84A2-A0DE094A94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ADAC6-3EF5-4C06-B9CB-FC9E0E8A32A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>项目管理体系文件</t>
   </si>
@@ -325,6 +325,26 @@
     <t>将外部类改为lambda表达式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>移除物品时总物品数量显示不正确bug</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运房东</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在移除物品时加入的empty实例被统计入物品总数中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正了统计规则，移除了对empty的不正确统计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24-12.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +357,7 @@
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -520,6 +540,13 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -772,176 +799,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="20" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="20" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="20" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="20" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1064,7 +1091,7 @@
         <xdr:cNvPr id="7277" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3792C52A-C8FD-4C47-8308-581226B4043B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1165,7 @@
         <xdr:cNvPr id="7278" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DE0A03-E16E-499F-861B-C6CE4BA16C40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,429 +1519,429 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" style="25" customWidth="1"/>
-    <col min="3" max="4" width="13.19921875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="12.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="22" customWidth="1"/>
+    <col min="3" max="4" width="13.19921875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="47">
         <v>44555</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="15.6">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1973,183 +2000,183 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="9.8984375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.8984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="9.8984375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.8984375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2169,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2193,646 +2220,680 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="48" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55">
+        <v>1</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="13"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="14" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="2:15" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="43.2">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="3" customFormat="1" ht="32.4">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="24">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="43.2">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="24">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="43.2">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="43.2">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="32.4">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="32.4">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>10</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="61" t="s">
+      <c r="O14" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="9">
+    <row r="15" spans="2:15" ht="32.4">
+      <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
+      <c r="C15" s="8">
+        <v>11</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
